--- a/Base/Backlog_34.xlsx
+++ b/Base/Backlog_34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FDB1DF-79C5-4A63-80E4-9812B83F9A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F71C292-8F0E-45FD-836F-289904FBD99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="273" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -639,10 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,7 +697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
@@ -731,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -766,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
@@ -801,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -836,7 +837,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
@@ -871,7 +872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -906,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
@@ -941,7 +942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>4</v>
       </c>
@@ -976,7 +977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>4</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>4</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>4</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>4</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>4</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>4</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>4</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>4</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>4</v>
       </c>
@@ -2168,7 +2169,13 @@
       <c r="I72" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K37" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}"/>
+  <autoFilter ref="A1:K37" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="7" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
